--- a/data/friend_enemy_list.xlsx
+++ b/data/friend_enemy_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasstoehr/Code/measureLM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36481F46-C606-5C46-8D79-5467E2E7255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724DFDD-9314-7D4E-81E7-3B0B2B10F389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1100" windowWidth="28040" windowHeight="17440" xr2:uid="{A1AE5C8A-DF2D-8144-9909-F6014C2366D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
   <si>
     <t>label</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>Sergei Brin</t>
-  </si>
-  <si>
-    <t>Israel</t>
   </si>
   <si>
     <t>Mike Wazowski</t>
@@ -863,9 +860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83A9D8F-A1EB-0349-A137-8EF55FF32A40}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -876,10 +875,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1869,24 +1868,24 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="B72" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="C72" t="s">
         <v>91</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
         <v>140</v>
       </c>
       <c r="C73" t="s">
@@ -1897,8 +1896,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>2</v>
+      <c r="A74" t="s">
+        <v>5</v>
       </c>
       <c r="B74" t="s">
         <v>141</v>
@@ -1907,20 +1906,6 @@
         <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" t="s">
         <v>14</v>
       </c>
     </row>
